--- a/source_plates/220627_source_plate2.xlsx
+++ b/source_plates/220627_source_plate2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carothers4/Documents/GitHub/WHISPR/source_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A776ABDA-CE48-4FBE-97E1-325FAD75891D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3F7967-62E9-C547-A1C4-8FDF279C3A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1020" yWindow="500" windowWidth="37380" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="81">
   <si>
     <t>Plasmid</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>B7</t>
-  </si>
-  <si>
-    <t>need to add</t>
   </si>
   <si>
     <t>pDA309_v2</t>
@@ -713,18 +710,18 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -766,7 +763,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -780,7 +777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -797,7 +794,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -816,7 +813,7 @@
       <c r="G5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -834,7 +831,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -855,7 +852,7 @@
       <c r="J7" s="5"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
@@ -876,7 +873,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -897,7 +894,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -917,15 +914,15 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>40</v>
       </c>
       <c r="D11" s="6">
         <v>226.1</v>
@@ -936,15 +933,15 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="D12" s="6">
         <v>353.9</v>
@@ -953,47 +950,41 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="6">
         <v>150</v>
       </c>
       <c r="E13" s="7">
-        <v>42</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6">
         <v>70</v>
       </c>
       <c r="E14" s="7">
-        <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1010,20 +1001,17 @@
         <v>36.675000000000004</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="5">
-        <f>35*181/150</f>
-        <v>42.233333333333334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
       </c>
       <c r="D16">
         <v>2.08</v>
@@ -1036,51 +1024,45 @@
       <c r="J16" s="5"/>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="7">
         <v>0.20799999999999999</v>
       </c>
       <c r="E17" s="7">
-        <v>36.675000000000004</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D18" s="7">
         <v>30</v>
       </c>
       <c r="E18" s="7">
-        <v>36.675000000000004</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1101,7 +1083,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1122,7 +1104,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1125,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1164,15 +1146,15 @@
       <c r="J22" s="5"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="D23" s="9">
         <v>33.799999999999997</v>
@@ -1183,15 +1165,15 @@
       <c r="G23" s="7"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="D24" s="9">
         <v>41.3</v>
@@ -1202,15 +1184,15 @@
       <c r="G24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="D25" s="9">
         <v>21.6</v>
@@ -1222,15 +1204,15 @@
       <c r="J25" s="5"/>
       <c r="K25" s="7"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="9">
         <v>20.6</v>
@@ -1241,15 +1223,15 @@
       <c r="G26" s="7"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D27" s="9">
         <v>33.700000000000003</v>
@@ -1260,15 +1242,15 @@
       <c r="G27" s="7"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D28" s="9">
         <v>34.6</v>
@@ -1279,16 +1261,16 @@
       <c r="G28" s="7"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" ref="B29:B34" si="0">_xlfn.CONCAT(B23,"_low")</f>
         <v>pDA310_low</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="9">
         <v>5</v>
@@ -1299,16 +1281,16 @@
       <c r="G29" s="7"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pDA311_low</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="9">
         <v>5</v>
@@ -1319,16 +1301,16 @@
       <c r="G30" s="7"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pDA312_low</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="9">
         <v>5</v>
@@ -1339,7 +1321,7 @@
       <c r="G31" s="7"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>23</v>
       </c>
@@ -1348,7 +1330,7 @@
         <v>pDA315_v2_low</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="9">
         <v>5</v>
@@ -1359,16 +1341,16 @@
       <c r="G32" s="7"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pDA316_low</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="9">
         <v>5</v>
@@ -1379,16 +1361,16 @@
       <c r="G33" s="7"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" si="0"/>
         <v>pDA317_low</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="9">
         <v>5</v>
@@ -1399,15 +1381,15 @@
       <c r="G34" s="7"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="9">
         <v>5</v>
@@ -1418,15 +1400,15 @@
       <c r="G35" s="7"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="9">
         <v>5</v>
@@ -1437,44 +1419,38 @@
       <c r="G36" s="7"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D37" s="9">
         <v>30</v>
       </c>
       <c r="E37">
-        <v>40</v>
-      </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D38" s="9">
         <v>30</v>
       </c>
       <c r="E38">
-        <v>40</v>
-      </c>
-      <c r="G38" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
